--- a/va_facility_data_2025-02-20/Pittsfield VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Pittsfield%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Pittsfield VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Pittsfield%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Re16da8c712344af3935911872c6bf645"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R52d66c73fb0849fe96ef1aaebdaf8bae"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra4d19e4428154424ab2f031a4bc697c3"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R6ecef488af3c485da62d2e7cbe2769d5"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rb5b99fb7788a4248838538cb4abf9869"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R36f55f6008aa4a88a0407298cfb6bc61"/>
   </x:sheets>
 </x:workbook>
 </file>
